--- a/data/01_meta/data/raw/C_moschata_GBS_accession.xlsx
+++ b/data/01_meta/data/raw/C_moschata_GBS_accession.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="675">
   <si>
-    <t xml:space="preserve">Plant_Accession</t>
+    <t xml:space="preserve">Plant Accession</t>
   </si>
   <si>
     <t xml:space="preserve">Plant name</t>
@@ -2188,8 +2188,8 @@
   </sheetPr>
   <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J149" activeCellId="0" sqref="J149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/data/01_meta/data/raw/C_moschata_GBS_accession.xlsx
+++ b/data/01_meta/data/raw/C_moschata_GBS_accession.xlsx
@@ -172,1093 +172,1093 @@
     <t xml:space="preserve">La_Estrella</t>
   </si>
   <si>
+    <t xml:space="preserve">Calabaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meot_Jaeng_I_Ae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_135371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit globose with an exceptionally long neck (13in), 22in in length; rind gold buff with splashes of paler gold, faintly ribbed; flesh orange, sweet, and tender; seed cavity heart-shaped, 5 by 8in, an excellent variety</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_163230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kadu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_164168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KADU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good keeper, but flesh of poor quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_164312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PUSHNIKAI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_165033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KARAKABAK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_165561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_165575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit flattened, 15in across, heavily ribbed, pale-buff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_165995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit subglobose, 10in in diameter, buff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_169410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweet type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_169413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_169415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_169441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOGUNLER 2196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_172344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPITO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeds are roasted, shelled, and eaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_174194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_174817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit buff, spotted with white</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_174818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit subelongate, 15 by 12in, buff, deeply ribbed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_174819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruit flattened, 12 by 15in, buff with paler spots, deeply ribbed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_182197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_183258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_194570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_195312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_197154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AYOTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_199014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presented by Frank Pellet, Pellet Gardens, Atlantic, Iowa, in 1949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_200737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_200822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits round-flattened, small, salmon, flesh bright-orange; common</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_200823</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits oblate, green with yellow spots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_201772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild material</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_209116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_209117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_211993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIZAIYEH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_211998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_211999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_212011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_212899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_214156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KUMBALKA 13453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow, ribbed, oblate medium-sized; cooked and eaten as a vegetable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_222760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_249565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_257532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_262890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALABASRO SEGUALCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit large, oblong, dark green; squash and seeds eaten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_267752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plants medium vigor, midseason variety leaf small; fruit 14in long with 6in bulb and 4in neck; light green, long, slender, smooth, curved neck; flesh orange; seed brown.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_267753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G8754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plants vigorous, midseason variety; fruit 22in long with 10in bulk and 8in neck, 10-20 grooves, tan netted, green, waxy; flesh 3in thick, orange. 3 large fruits per plant, often weighing over 100lbs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_271338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_271341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_271345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received as Cucurbita maxima.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_288239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probably similar to 'Butternut' in color, but larger and very variable in shape.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_312125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_312165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CALABASA LECHONGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_326320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHITE AFRICAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vine trailing; fruit white, 10 to 20 pounds. Good table quality; good winter keeper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_357918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_358507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOLDEN CUSHAW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_369346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_381807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_381808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_381812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_381814</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_381815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_381817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_381818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_381819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_381820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_406848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_418965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sui-De-Fu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit round, sweet. Midseason.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_419083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mou Pan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_419137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_419202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_427212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Large Butternut Squash. Elongate cylindrical, curved, blossom end bulbous, 10cm diameter. Used for pies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_427213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flattened at blossom end and tapers gradually to stem end, weight 2kg, brownish orange.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_427214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brittingham. Vine type. Fruit depressed globose, weight 2kg, brownish orange. Used for pies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepita menuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit long necked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit top-shape, whitish with tan, 26cm wide, 20cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438553</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xnu Kun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fruit depressed globose, ribbed, dark orange-brown, 28cm in diameter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HW 0179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commonly called Ayote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locally called Tallallota.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtained from F. Cardenas R. Fruit pear shaped, 1.8kg. Seeds white with dark border.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit flat, many lobed, dull yellow. Eaten when young. Locally called Kanasin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtained from Moises Gomez. Fruit flattened ovoid, ribbed, buff. Rind hard.  Flesh thick, orange. Locally called Tockun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtained from Moises Gomez. Fruit ovoid, slightly ribbed, buff. Locally called  Tockun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438731</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit flattened-oblate, deeply ribbed at base, dark buff. Rind hard. Flesh  medium thick, light orange. Locally called Knoc kun (Cascara dura).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit extremely flat, deeply lobed, dark buff, reticulated dark green. Flesh  thin, dark orange.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit small, flat, ribbed, dark brown. Rind thin. Flesh medium thick, dark  orange.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438735</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit oblate-flattened, ribbed, buff. Rind hard. Many seeded.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit spherical, ribbed, light tan. Rind very hard.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit large, ovoid, ribbed, light tan, mottled dark green. Rind very hard.  Seeds many, plump.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438739</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit small, deeply ribbed at stem end, apically dome-shaped, smooth, dark  orange buff, marked brown. Rind soft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438741</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit spherical, slightly ribbed, orange-buff. Rind hard. Flesh thin, pale  orange.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438743</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit large, curved, club-shaped, ribbed, pale tan, 15cm diam., 45cm long. Rind  hard. Flesh thin, dark orange.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit flat, 10 lobed, 25cm diam., tan with dark green reticulations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438756</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit oblate, deeply lobed, warty, 25cm diam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit obovate, faintly ribbed, nearly white, 15cm diam., 25cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit flattened ovate, shallow ribs, white, 23cm diam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit ovoid, shallow ribs, white, 17cm diam., 23cm long. Flesh cream.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438767</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit bluntly obovate, shallow ribs, deep tan, 15cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438770</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit short club shaped, ribbed, neck 11.5cm diam., 15cm long, body 23cm diam.,  13cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit club shaped, tan with dark green spots, 10cm diam., 28cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit globose, smooth, striped and reticulated dark green, 20cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit flattened globose, deeply ribbed, buff, 20cm diam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438775</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438776</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438777</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeds large.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit ovoid, ribbed tan with buff mottling, 25cm diam., 20cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit flattened globose, slightly ribbed, warty, buff.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit ovate, slightly ribbed, orange, 30cm diam., 30cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit elliptical, slightly ribbed, orange marked green, 28cm diam., 46cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit depressed globose, ribbed. Rind hard, mottled tan and orange, 36cm wide,  20cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit depressed globose, ribbed. Rind soft, mottled green and tan, 33cm diam.,  20cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtained by Juan Santo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtained from Jose Sinica Fiscal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438791</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit spindle shaped, light buff, 30cm diam., 64cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit long elliptic, shallow ribs, light buff, mottled tan and green,  20cm diam., 45cm long. Many seeds germinating. Locally called Tomala.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeds mixed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit long necked, 12cm diam. at widest part, 30cm long, orange buff, green  on neck.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vegetable variety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtained from Alfonso Lopez. Forage type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obtained from F. Cardenas R.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit flat, many lobes, dull yellow. Locally called Kanasin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit flat, ribbed, dark brown with heavy bloom. Rind soft, thick. Flesh dark orange.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locally called Tamala.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit depressed globose, ribbed. Rind rough, wrinkled dark buff, 25cm diam., 18 cm long.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_438830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_441723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTE0778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits oval. Rind greenish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_441725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits elongated. Rind cream-color. Flesh bright orange. Local name Abobora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_441726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits flattened-globose. Rind tan and green. Flesh dark orange. Local name  Abobora.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vines. Fruits light tan, slightly green mottled, 16cm long, 18cm diam. Local name Calabasa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits dark green, tan markings, bell-shaped, 15cm long, 18cm diam. Local name  Calabasa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442249</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local name Calabaza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits tan, pear-shaped, 28cm long, 15cm diam., cracks horizontally at maturity. Local name Calabaza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442253</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits spheroid, tapering toward top and bottom, 21cm long, 19cm diam. Local  name Calabaza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits dark green, light green striped, slightly bell-shaped, 25.5cm long, 16  cm diam. Local name Calabaza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits tan, green striped, oblong, 22cm long, 15cm diam. Local name Calabaza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits dark green, splotchy yellow at maturity, slight bloom, surface slightly  lumpy, pear-shaped, 23cm long, 24cm diam. Local name Calabaza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits dark green, tan-striped, turban-shaped, 11cm long, 18cm diam. Local name  Calabaza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits tan, large, oblong, slightly bell-shaped, 40cm long, 26cm diam. Rind 2mm  thick. Flesh deep orange. Local name Calabaza de Castilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits green, light green striped, yellow at maturity, pyriform with pronounced  neck, 23cm long, 15cm diam. Rind 1 mm thick. Flesh lemon yellow. Local name  Calabaza de Castilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits tan, pyriform, 25cm long, 22cm diam. Rind 0.5mm thick. Placenta deep orange. Flesh lemon yellow. Local name Calabaza de Castilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442265</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits green with white stripes, bell-shaped, 21cm long, 17.5cm diam. Local name Calabaza de Castilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local name Calabaza de Castilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seed large. Local name Calabaza de Castilla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442271</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits light green, tan mottling, turban-shaped, 16m long, 25cm diam. Local  name Calabaza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits light green, tan mottling, turban-shaped, 23cm long, 22cm diam. Local  name Calabaza camotuda.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442273</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits green, light green striped, turban-shaped, 16cm long, 20cm diam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442274</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits tan, flattened-round, warty, 14cm long, 19cm diam. Primitive type.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits mottled green and tan, heavy bloom, top-shaped, 21cm long, 15cm diam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits tan, turban-shaped, 12cm long, 19cm diam. Local name Calabaza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442278</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits dark tan, black mottling, slight bloom, turban-shaped, 12cm long, 14cm  diam. Local name Calabaza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits tan, dark green mottling, slight bloom, Canadian Crookneck shape, 31cm long, 13cm diam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits tan, dark green mottling, tan mottling at maturity, turban-shaped, 15.8  long, 20cm diam. Local name Calabaza criolla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits dark tan, ovate, 20cm long, 18.4cm diam. Local name Calabaza criolla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits tan, dark-tan mottled, necked pyriform, 15.4cm long, 15cm diam. Local  name Calabaza criolla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits dark orange, dark green and tan mottled, bell-shaped, 16.7cm long, 13.2  cm diam. Local name Calabaza criolla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442287</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits deep orange, elongate, 32cm long, 12cm diam. Placenta greenish-brown. Flesh deep orange. Local name Calabaza criolla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442288</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruits tan, dark green and tan mottled, turban-shaped, 15cm long, 22.7cm diam.  Placenta brown. Flesh greenish. Local name Calabaza criolla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_442289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_448806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wrong PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_449345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local name Pepita de calabasa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_449346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local name Calabasa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_449347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_449348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local name Ixchilcum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_449349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local name Pepita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_451835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit star-shaped. Local name Ayote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_451839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit figure 8-shaped with upper half ribbed. Local name Ayote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_451841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit crook-neck shaped. Local name Ayote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_451845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit pear-shaped. Local name Ayote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_451846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit small, round. Local name Ayote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_451848</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local name Ayote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_458650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRT 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit ovate to round, 15.2-30.5cm diameter, green with greenish-yellow blotches. Flesh 2.5-5.1cm thick, orange.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_458728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TW 1080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seeds small, dirty white, margins lighter. Local name Zapallito anguito (Butternut).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_458745</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M 27171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit 2.8kg, long. Received as Cucurbita sp. Local name Ayote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_458746</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M 27172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit 2.6kg, whitish, shaped like acorn squash. Received as Cucurbita sp.  Local name Ayote.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PI_475750</t>
+  </si>
+  <si>
     <t xml:space="preserve">Calabazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meot_Jaeng_I_Ae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_135371</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit globose with an exceptionally long neck (13in), 22in in length; rind gold buff with splashes of paler gold, faintly ribbed; flesh orange, sweet, and tender; seed cavity heart-shaped, 5 by 8in, an excellent variety</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_163230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kadu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_164168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KADU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Good keeper, but flesh of poor quality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_164312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PUSHNIKAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_165033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KARAKABAK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_165561</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_165575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit flattened, 15in across, heavily ribbed, pale-buff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_165995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit subglobose, 10in in diameter, buff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_169410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweet type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_169413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_169415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_169441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOGUNLER 2196</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_172344</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEPITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seeds are roasted, shelled, and eaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_174194</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_174817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit buff, spotted with white</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_174818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit subelongate, 15 by 12in, buff, deeply ribbed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_174819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fruit flattened, 12 by 15in, buff with paler spots, deeply ribbed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_182197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_183258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_194570</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_195312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_197154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AYOTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_199014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Presented by Frank Pellet, Pellet Gardens, Atlantic, Iowa, in 1949</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_200737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_200822</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits round-flattened, small, salmon, flesh bright-orange; common</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_200823</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits oblate, green with yellow spots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_201772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_209116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Puerto Rico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_209117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_211993</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIZAIYEH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_211998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_211999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_212011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_212899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_214156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KUMBALKA 13453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow, ribbed, oblate medium-sized; cooked and eaten as a vegetable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_222760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_249565</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_257532</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_262890</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALABASRO SEGUALCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit large, oblong, dark green; squash and seeds eaten</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_267752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G8753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plants medium vigor, midseason variety leaf small; fruit 14in long with 6in bulb and 4in neck; light green, long, slender, smooth, curved neck; flesh orange; seed brown.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_267753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G8754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plants vigorous, midseason variety; fruit 22in long with 10in bulk and 8in neck, 10-20 grooves, tan netted, green, waxy; flesh 3in thick, orange. 3 large fruits per plant, often weighing over 100lbs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_271338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_271341</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_271345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received as Cucurbita maxima.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_288239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probably similar to 'Butternut' in color, but larger and very variable in shape.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_312125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_312165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CALABASA LECHONGA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_326320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHITE AFRICAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vine trailing; fruit white, 10 to 20 pounds. Good table quality; good winter keeper.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_357918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_358507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GOLDEN CUSHAW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_369346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_381807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_381808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_381812</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_381814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_381815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_381817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_381818</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_381819</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_381820</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_406848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_418965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sui-De-Fu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit round, sweet. Midseason.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_419083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mou Pan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_419137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_419202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_427212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Large Butternut Squash. Elongate cylindrical, curved, blossom end bulbous, 10cm diameter. Used for pies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_427213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flattened at blossom end and tapers gradually to stem end, weight 2kg, brownish orange.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_427214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brittingham. Vine type. Fruit depressed globose, weight 2kg, brownish orange. Used for pies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pepita menuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438549</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit long necked.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438551</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit top-shape, whitish with tan, 26cm wide, 20cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438553</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xnu Kun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fruit depressed globose, ribbed, dark orange-brown, 28cm in diameter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HW 0179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commonly called Ayote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438579</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locally called Tallallota.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438722</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtained from F. Cardenas R. Fruit pear shaped, 1.8kg. Seeds white with dark border.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit flat, many lobed, dull yellow. Eaten when young. Locally called Kanasin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtained from Moises Gomez. Fruit flattened ovoid, ribbed, buff. Rind hard.  Flesh thick, orange. Locally called Tockun.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtained from Moises Gomez. Fruit ovoid, slightly ribbed, buff. Locally called  Tockun.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438731</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit flattened-oblate, deeply ribbed at base, dark buff. Rind hard. Flesh  medium thick, light orange. Locally called Knoc kun (Cascara dura).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit extremely flat, deeply lobed, dark buff, reticulated dark green. Flesh  thin, dark orange.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438733</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit small, flat, ribbed, dark brown. Rind thin. Flesh medium thick, dark  orange.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438735</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit oblate-flattened, ribbed, buff. Rind hard. Many seeded.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438736</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit spherical, ribbed, light tan. Rind very hard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit large, ovoid, ribbed, light tan, mottled dark green. Rind very hard.  Seeds many, plump.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438739</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit small, deeply ribbed at stem end, apically dome-shaped, smooth, dark  orange buff, marked brown. Rind soft.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438741</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit spherical, slightly ribbed, orange-buff. Rind hard. Flesh thin, pale  orange.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438743</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit large, curved, club-shaped, ribbed, pale tan, 15cm diam., 45cm long. Rind  hard. Flesh thin, dark orange.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438752</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit flat, 10 lobed, 25cm diam., tan with dark green reticulations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438756</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit oblate, deeply lobed, warty, 25cm diam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit obovate, faintly ribbed, nearly white, 15cm diam., 25cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438759</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit flattened ovate, shallow ribs, white, 23cm diam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit ovoid, shallow ribs, white, 17cm diam., 23cm long. Flesh cream.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438767</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit bluntly obovate, shallow ribs, deep tan, 15cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438770</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit short club shaped, ribbed, neck 11.5cm diam., 15cm long, body 23cm diam.,  13cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438771</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit club shaped, tan with dark green spots, 10cm diam., 28cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit globose, smooth, striped and reticulated dark green, 20cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit flattened globose, deeply ribbed, buff, 20cm diam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438775</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438776</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seeds large.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438779</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit ovoid, ribbed tan with buff mottling, 25cm diam., 20cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit flattened globose, slightly ribbed, warty, buff.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit ovate, slightly ribbed, orange, 30cm diam., 30cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit elliptical, slightly ribbed, orange marked green, 28cm diam., 46cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit depressed globose, ribbed. Rind hard, mottled tan and orange, 36cm wide,  20cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438787</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit depressed globose, ribbed. Rind soft, mottled green and tan, 33cm diam.,  20cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtained by Juan Santo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtained from Jose Sinica Fiscal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438791</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438792</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit spindle shaped, light buff, 30cm diam., 64cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438795</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit long elliptic, shallow ribs, light buff, mottled tan and green,  20cm diam., 45cm long. Many seeds germinating. Locally called Tomala.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seeds mixed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438798</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit long necked, 12cm diam. at widest part, 30cm long, orange buff, green  on neck.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vegetable variety.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtained from Alfonso Lopez. Forage type.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438808</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Obtained from F. Cardenas R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit flat, many lobes, dull yellow. Locally called Kanasin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit flat, ribbed, dark brown with heavy bloom. Rind soft, thick. Flesh dark orange.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Locally called Tamala.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438827</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438828</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit depressed globose, ribbed. Rind rough, wrinkled dark buff, 25cm diam., 18 cm long.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_438830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_441723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTE0778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits oval. Rind greenish.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_441725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits elongated. Rind cream-color. Flesh bright orange. Local name Abobora.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_441726</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits flattened-globose. Rind tan and green. Flesh dark orange. Local name  Abobora.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vines. Fruits light tan, slightly green mottled, 16cm long, 18cm diam. Local name Calabasa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits dark green, tan markings, bell-shaped, 15cm long, 18cm diam. Local name  Calabasa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local name Calabaza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calabaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits tan, pear-shaped, 28cm long, 15cm diam., cracks horizontally at maturity. Local name Calabaza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442253</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits spheroid, tapering toward top and bottom, 21cm long, 19cm diam. Local  name Calabaza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442254</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits dark green, light green striped, slightly bell-shaped, 25.5cm long, 16  cm diam. Local name Calabaza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits tan, green striped, oblong, 22cm long, 15cm diam. Local name Calabaza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits dark green, splotchy yellow at maturity, slight bloom, surface slightly  lumpy, pear-shaped, 23cm long, 24cm diam. Local name Calabaza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits dark green, tan-striped, turban-shaped, 11cm long, 18cm diam. Local name  Calabaza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits tan, large, oblong, slightly bell-shaped, 40cm long, 26cm diam. Rind 2mm  thick. Flesh deep orange. Local name Calabaza de Castilla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits green, light green striped, yellow at maturity, pyriform with pronounced  neck, 23cm long, 15cm diam. Rind 1 mm thick. Flesh lemon yellow. Local name  Calabaza de Castilla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits tan, pyriform, 25cm long, 22cm diam. Rind 0.5mm thick. Placenta deep orange. Flesh lemon yellow. Local name Calabaza de Castilla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits green with white stripes, bell-shaped, 21cm long, 17.5cm diam. Local name Calabaza de Castilla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local name Calabaza de Castilla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seed large. Local name Calabaza de Castilla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442271</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits light green, tan mottling, turban-shaped, 16m long, 25cm diam. Local  name Calabaza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits light green, tan mottling, turban-shaped, 23cm long, 22cm diam. Local  name Calabaza camotuda.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442273</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits green, light green striped, turban-shaped, 16cm long, 20cm diam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442274</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits tan, flattened-round, warty, 14cm long, 19cm diam. Primitive type.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits mottled green and tan, heavy bloom, top-shaped, 21cm long, 15cm diam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits tan, turban-shaped, 12cm long, 19cm diam. Local name Calabaza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442278</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits dark tan, black mottling, slight bloom, turban-shaped, 12cm long, 14cm  diam. Local name Calabaza.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits tan, dark green mottling, slight bloom, Canadian Crookneck shape, 31cm long, 13cm diam.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits tan, dark green mottling, tan mottling at maturity, turban-shaped, 15.8  long, 20cm diam. Local name Calabaza criolla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits dark tan, ovate, 20cm long, 18.4cm diam. Local name Calabaza criolla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits tan, dark-tan mottled, necked pyriform, 15.4cm long, 15cm diam. Local  name Calabaza criolla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits dark orange, dark green and tan mottled, bell-shaped, 16.7cm long, 13.2  cm diam. Local name Calabaza criolla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits deep orange, elongate, 32cm long, 12cm diam. Placenta greenish-brown. Flesh deep orange. Local name Calabaza criolla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442288</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruits tan, dark green and tan mottled, turban-shaped, 15cm long, 22.7cm diam.  Placenta brown. Flesh greenish. Local name Calabaza criolla.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_442289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_448806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wrong PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_449345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local name Pepita de calabasa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_449346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local name Calabasa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_449347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_449348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local name Ixchilcum.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_449349</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local name Pepita.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_451835</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit star-shaped. Local name Ayote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_451839</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit figure 8-shaped with upper half ribbed. Local name Ayote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_451841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit crook-neck shaped. Local name Ayote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_451845</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit pear-shaped. Local name Ayote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_451846</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit small, round. Local name Ayote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_451848</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local name Ayote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_458650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRT 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit ovate to round, 15.2-30.5cm diameter, green with greenish-yellow blotches. Flesh 2.5-5.1cm thick, orange.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_458728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TW 1080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seeds small, dirty white, margins lighter. Local name Zapallito anguito (Butternut).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_458745</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M 27171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit 2.8kg, long. Received as Cucurbita sp. Local name Ayote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_458746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M 27172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fruit 2.6kg, whitish, shaped like acorn squash. Received as Cucurbita sp.  Local name Ayote.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PI_475750</t>
   </si>
   <si>
     <t xml:space="preserve">Paraguay</t>
@@ -2188,8 +2188,8 @@
   </sheetPr>
   <dimension ref="A1:G315"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J35" activeCellId="0" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5487,13 +5487,13 @@
         <v>318</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="G161" s="5"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B162" s="5"/>
       <c r="C162" s="5" t="s">
@@ -5512,7 +5512,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B163" s="5"/>
       <c r="C163" s="5" t="s">
@@ -5522,7 +5522,7 @@
         <v>78</v>
       </c>
       <c r="E163" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F163" s="6"/>
       <c r="G163" s="5" t="s">
@@ -5531,7 +5531,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B164" s="5"/>
       <c r="C164" s="5" t="s">
@@ -5541,7 +5541,7 @@
         <v>78</v>
       </c>
       <c r="E164" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F164" s="6"/>
       <c r="G164" s="5" t="s">
@@ -5550,7 +5550,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B165" s="5"/>
       <c r="C165" s="5" t="s">
@@ -5560,7 +5560,7 @@
         <v>78</v>
       </c>
       <c r="E165" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F165" s="6"/>
       <c r="G165" s="5" t="s">
@@ -5569,7 +5569,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B166" s="5"/>
       <c r="C166" s="5" t="s">
@@ -5579,7 +5579,7 @@
         <v>78</v>
       </c>
       <c r="E166" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F166" s="6"/>
       <c r="G166" s="5" t="s">
@@ -5588,7 +5588,7 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="5" t="s">
@@ -5598,7 +5598,7 @@
         <v>78</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F167" s="6"/>
       <c r="G167" s="5" t="s">
@@ -5607,7 +5607,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B168" s="5"/>
       <c r="C168" s="5" t="s">
@@ -5617,7 +5617,7 @@
         <v>78</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F168" s="6"/>
       <c r="G168" s="5" t="s">
@@ -5626,7 +5626,7 @@
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B169" s="5"/>
       <c r="C169" s="5" t="s">
@@ -5636,7 +5636,7 @@
         <v>78</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F169" s="6"/>
       <c r="G169" s="5" t="s">
@@ -5645,7 +5645,7 @@
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B170" s="5"/>
       <c r="C170" s="5" t="s">
@@ -5655,7 +5655,7 @@
         <v>78</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="5" t="s">
@@ -5664,7 +5664,7 @@
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B171" s="5"/>
       <c r="C171" s="5" t="s">
@@ -5674,7 +5674,7 @@
         <v>78</v>
       </c>
       <c r="E171" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F171" s="6"/>
       <c r="G171" s="5" t="s">
@@ -5683,7 +5683,7 @@
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B172" s="5"/>
       <c r="C172" s="5" t="s">
@@ -5693,7 +5693,7 @@
         <v>78</v>
       </c>
       <c r="E172" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F172" s="6"/>
       <c r="G172" s="5" t="s">
@@ -5702,7 +5702,7 @@
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B173" s="5"/>
       <c r="C173" s="5" t="s">
@@ -5712,7 +5712,7 @@
         <v>78</v>
       </c>
       <c r="E173" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F173" s="6"/>
       <c r="G173" s="5" t="s">
@@ -5721,7 +5721,7 @@
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B174" s="5"/>
       <c r="C174" s="5" t="s">
@@ -5731,7 +5731,7 @@
         <v>78</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F174" s="6"/>
       <c r="G174" s="5" t="s">
@@ -5740,7 +5740,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B175" s="5"/>
       <c r="C175" s="5" t="s">
@@ -5750,7 +5750,7 @@
         <v>78</v>
       </c>
       <c r="E175" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F175" s="6"/>
       <c r="G175" s="5" t="s">
@@ -5759,7 +5759,7 @@
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B176" s="5"/>
       <c r="C176" s="5" t="s">
@@ -5769,7 +5769,7 @@
         <v>78</v>
       </c>
       <c r="E176" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F176" s="6"/>
       <c r="G176" s="5" t="s">
@@ -5778,7 +5778,7 @@
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B177" s="5"/>
       <c r="C177" s="5" t="s">
@@ -5788,7 +5788,7 @@
         <v>78</v>
       </c>
       <c r="E177" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F177" s="6"/>
       <c r="G177" s="5" t="s">
@@ -5797,7 +5797,7 @@
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B178" s="5"/>
       <c r="C178" s="5" t="s">
@@ -5807,7 +5807,7 @@
         <v>78</v>
       </c>
       <c r="E178" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F178" s="6"/>
       <c r="G178" s="5" t="s">
@@ -5816,7 +5816,7 @@
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B179" s="5"/>
       <c r="C179" s="5" t="s">
@@ -5826,7 +5826,7 @@
         <v>78</v>
       </c>
       <c r="E179" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F179" s="6"/>
       <c r="G179" s="5" t="s">
@@ -5835,7 +5835,7 @@
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="5" t="s">
@@ -5845,7 +5845,7 @@
         <v>78</v>
       </c>
       <c r="E180" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F180" s="6"/>
       <c r="G180" s="5" t="s">
@@ -5854,7 +5854,7 @@
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B181" s="5"/>
       <c r="C181" s="5" t="s">
@@ -5864,7 +5864,7 @@
         <v>78</v>
       </c>
       <c r="E181" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F181" s="6"/>
       <c r="G181" s="5" t="s">
@@ -5873,7 +5873,7 @@
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B182" s="5"/>
       <c r="C182" s="5" t="s">
@@ -5883,7 +5883,7 @@
         <v>78</v>
       </c>
       <c r="E182" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F182" s="6"/>
       <c r="G182" s="5" t="s">
@@ -5892,7 +5892,7 @@
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B183" s="5"/>
       <c r="C183" s="5" t="s">
@@ -5902,7 +5902,7 @@
         <v>78</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F183" s="6"/>
       <c r="G183" s="5" t="s">
@@ -5911,7 +5911,7 @@
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B184" s="5"/>
       <c r="C184" s="5" t="s">
@@ -5921,7 +5921,7 @@
         <v>78</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F184" s="6"/>
       <c r="G184" s="5" t="s">
@@ -5930,7 +5930,7 @@
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B185" s="5"/>
       <c r="C185" s="5" t="s">
@@ -5940,7 +5940,7 @@
         <v>78</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F185" s="6"/>
       <c r="G185" s="5" t="s">
@@ -5949,7 +5949,7 @@
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B186" s="5"/>
       <c r="C186" s="5" t="s">
@@ -5959,7 +5959,7 @@
         <v>78</v>
       </c>
       <c r="E186" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F186" s="6"/>
       <c r="G186" s="5" t="s">
@@ -5968,7 +5968,7 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B187" s="5"/>
       <c r="C187" s="5" t="s">
@@ -5978,7 +5978,7 @@
         <v>78</v>
       </c>
       <c r="E187" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F187" s="6"/>
       <c r="G187" s="5" t="s">
@@ -5987,7 +5987,7 @@
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B188" s="5"/>
       <c r="C188" s="5" t="s">
@@ -5997,7 +5997,7 @@
         <v>78</v>
       </c>
       <c r="E188" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F188" s="6"/>
       <c r="G188" s="5" t="s">
@@ -6006,7 +6006,7 @@
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B189" s="5"/>
       <c r="C189" s="5" t="s">
@@ -6025,11 +6025,11 @@
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B190" s="5"/>
       <c r="C190" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="6"/>
@@ -6038,7 +6038,7 @@
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B191" s="5"/>
       <c r="C191" s="5" t="s">
@@ -6048,7 +6048,7 @@
         <v>78</v>
       </c>
       <c r="E191" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F191" s="6"/>
       <c r="G191" s="5" t="s">
@@ -6057,7 +6057,7 @@
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B192" s="5"/>
       <c r="C192" s="5" t="s">
@@ -6067,7 +6067,7 @@
         <v>78</v>
       </c>
       <c r="E192" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F192" s="6"/>
       <c r="G192" s="5" t="s">
@@ -6076,7 +6076,7 @@
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B193" s="5"/>
       <c r="C193" s="5" t="s">
@@ -6086,7 +6086,7 @@
         <v>78</v>
       </c>
       <c r="E193" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F193" s="6"/>
       <c r="G193" s="5" t="s">
@@ -6095,7 +6095,7 @@
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="5" t="s">
@@ -6105,7 +6105,7 @@
         <v>19</v>
       </c>
       <c r="E194" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F194" s="6"/>
       <c r="G194" s="5" t="s">
@@ -6114,7 +6114,7 @@
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B195" s="5"/>
       <c r="C195" s="5" t="s">
@@ -6124,7 +6124,7 @@
         <v>19</v>
       </c>
       <c r="E195" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F195" s="6"/>
       <c r="G195" s="5" t="s">
@@ -6133,7 +6133,7 @@
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B196" s="5"/>
       <c r="C196" s="5" t="s">
@@ -6143,7 +6143,7 @@
         <v>19</v>
       </c>
       <c r="E196" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F196" s="6"/>
       <c r="G196" s="5" t="s">
@@ -6152,7 +6152,7 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B197" s="5"/>
       <c r="C197" s="5" t="s">
@@ -6162,7 +6162,7 @@
         <v>19</v>
       </c>
       <c r="E197" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F197" s="6"/>
       <c r="G197" s="5" t="s">
@@ -6171,7 +6171,7 @@
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B198" s="5"/>
       <c r="C198" s="5" t="s">
@@ -6181,7 +6181,7 @@
         <v>19</v>
       </c>
       <c r="E198" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F198" s="6"/>
       <c r="G198" s="5" t="s">
@@ -6190,7 +6190,7 @@
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B199" s="5"/>
       <c r="C199" s="5" t="s">
@@ -6200,7 +6200,7 @@
         <v>19</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="5" t="s">
@@ -6209,7 +6209,7 @@
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B200" s="5"/>
       <c r="C200" s="5" t="s">
@@ -6219,7 +6219,7 @@
         <v>19</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="5" t="s">
@@ -6228,7 +6228,7 @@
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B201" s="5"/>
       <c r="C201" s="5" t="s">
@@ -6238,7 +6238,7 @@
         <v>19</v>
       </c>
       <c r="E201" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="5" t="s">
@@ -6247,19 +6247,19 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="B202" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="C202" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C202" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D202" s="5" t="s">
+      <c r="E202" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="E202" s="6" t="s">
-        <v>401</v>
       </c>
       <c r="F202" s="6"/>
       <c r="G202" s="5" t="s">
@@ -6268,19 +6268,19 @@
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B203" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="C203" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C203" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="5" t="s">
+      <c r="E203" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="E203" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="5" t="s">
@@ -6289,10 +6289,10 @@
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B204" s="5" t="s">
         <v>406</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>407</v>
       </c>
       <c r="C204" s="5" t="s">
         <v>8</v>
@@ -6301,7 +6301,7 @@
         <v>19</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F204" s="6"/>
       <c r="G204" s="5" t="s">
@@ -6310,10 +6310,10 @@
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>410</v>
       </c>
       <c r="C205" s="5" t="s">
         <v>8</v>
@@ -6322,7 +6322,7 @@
         <v>19</v>
       </c>
       <c r="E205" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F205" s="6"/>
       <c r="G205" s="5" t="s">
@@ -6331,10 +6331,10 @@
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>412</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C206" s="5" t="s">
         <v>8</v>
@@ -8127,7 +8127,7 @@
         <v>20</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>320</v>
+        <v>50</v>
       </c>
       <c r="G291" s="5" t="s">
         <v>10</v>
